--- a/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>111161</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96426</v>
+        <v>97061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123323</v>
+        <v>123248</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6898570804994639</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5984117639440454</v>
+        <v>0.6023524259743773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7653358034705287</v>
+        <v>0.7648724369145752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -762,19 +762,19 @@
         <v>50764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42837</v>
+        <v>41956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58235</v>
+        <v>58786</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5996913240778903</v>
+        <v>0.5996913240778902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5060489293444959</v>
+        <v>0.4956450214866243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6879542769454702</v>
+        <v>0.6944625054255202</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>157</v>
@@ -783,19 +783,19 @@
         <v>161925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>146051</v>
+        <v>146152</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>175738</v>
+        <v>175306</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6588034154483318</v>
+        <v>0.6588034154483319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5942209677628838</v>
+        <v>0.5946291748747582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7150041362502632</v>
+        <v>0.713245016338491</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>28272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19200</v>
+        <v>19666</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39774</v>
+        <v>40644</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1754525573579727</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.119154866083168</v>
+        <v>0.1220444993488384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2468327552813538</v>
+        <v>0.2522330777566972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -833,19 +833,19 @@
         <v>15837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10380</v>
+        <v>10696</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21904</v>
+        <v>23303</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1870832020222971</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1226233711611266</v>
+        <v>0.1263507742122576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.258763672752188</v>
+        <v>0.27528258238727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -854,19 +854,19 @@
         <v>44108</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33798</v>
+        <v>33215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56767</v>
+        <v>57298</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1794582260072322</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1375092083630374</v>
+        <v>0.1351377998411054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2309626773427015</v>
+        <v>0.2331228713442408</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>10063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4601</v>
+        <v>4480</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19037</v>
+        <v>19113</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06244856122830918</v>
+        <v>0.06244856122830917</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02855298355415226</v>
+        <v>0.02779991038465403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1181419583968344</v>
+        <v>0.1186143348790221</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -904,19 +904,19 @@
         <v>5973</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2907</v>
+        <v>3023</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10833</v>
+        <v>10472</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07055749039803751</v>
+        <v>0.07055749039803749</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03433966751854645</v>
+        <v>0.03571007621273171</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1279746547769774</v>
+        <v>0.1237079939575198</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -925,19 +925,19 @@
         <v>16035</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9697</v>
+        <v>10287</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25615</v>
+        <v>26586</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06524132846449518</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03945233898873094</v>
+        <v>0.04185160207740925</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1042177732456296</v>
+        <v>0.1081686195140245</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>8085</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3467</v>
+        <v>3548</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18287</v>
+        <v>18038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05017557001626776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02151496313384194</v>
+        <v>0.02201813736523342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1134864043414278</v>
+        <v>0.1119455947107307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -975,19 +975,19 @@
         <v>6285</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3037</v>
+        <v>3094</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11423</v>
+        <v>11947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07424844729162933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03588170926098443</v>
+        <v>0.03654692599856589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.134938392588498</v>
+        <v>0.1411343095027766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -996,19 +996,19 @@
         <v>14370</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8314</v>
+        <v>8526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24105</v>
+        <v>24096</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05846642341110739</v>
+        <v>0.0584664234111074</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03382640368112577</v>
+        <v>0.03469021886665027</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09807353948460086</v>
+        <v>0.09803605228605218</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>3556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1097</v>
+        <v>909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8686</v>
+        <v>8386</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0220662308979863</v>
+        <v>0.02206623089798629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006808910488830915</v>
+        <v>0.00564389471207963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05390692015696862</v>
+        <v>0.0520416756334266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1046,19 +1046,19 @@
         <v>3593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1307</v>
+        <v>1370</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7681</v>
+        <v>7729</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.04244385220345957</v>
+        <v>0.04244385220345956</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01544150979805842</v>
+        <v>0.01618152529000599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0907354599846323</v>
+        <v>0.09129951441103397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1067,19 +1067,19 @@
         <v>7149</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3544</v>
+        <v>3740</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13286</v>
+        <v>14364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02908441442655671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01441881749271606</v>
+        <v>0.0152152742947818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05405511444201643</v>
+        <v>0.05843960873929529</v>
       </c>
     </row>
     <row r="9">
@@ -1109,19 +1109,19 @@
         <v>2199</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6035</v>
+        <v>6248</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02597568400668629</v>
+        <v>0.02597568400668628</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008141849848739661</v>
+        <v>0.007944424490718516</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07129210069716577</v>
+        <v>0.07381423931501069</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1130,19 +1130,19 @@
         <v>2199</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5947</v>
+        <v>6011</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.008946192242276612</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002730970756611083</v>
+        <v>0.002699078705743973</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02419609295596589</v>
+        <v>0.02445566493789652</v>
       </c>
     </row>
     <row r="10">
@@ -1234,19 +1234,19 @@
         <v>678679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>640399</v>
+        <v>638479</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>718161</v>
+        <v>718142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5367218417110067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5064488418410932</v>
+        <v>0.5049300021875558</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5679454579553547</v>
+        <v>0.5679304216876222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>639</v>
@@ -1255,19 +1255,19 @@
         <v>492695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>467232</v>
+        <v>464736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>520614</v>
+        <v>520662</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5287262271442374</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5014008337675615</v>
+        <v>0.4987224714349444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5586866053754369</v>
+        <v>0.5587382548145745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1201</v>
@@ -1276,19 +1276,19 @@
         <v>1171374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1122966</v>
+        <v>1123633</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1221976</v>
+        <v>1221493</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5333295041978179</v>
+        <v>0.5333295041978178</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5112892539868029</v>
+        <v>0.5115930630735767</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5563688188192391</v>
+        <v>0.5561487778794447</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>300597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>270377</v>
+        <v>269408</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>334104</v>
+        <v>334134</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2377222119877433</v>
+        <v>0.2377222119877432</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2138227427248482</v>
+        <v>0.213056548858344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2642204980879844</v>
+        <v>0.2642440708909318</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>347</v>
@@ -1326,19 +1326,19 @@
         <v>247976</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224392</v>
+        <v>223906</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>272380</v>
+        <v>274017</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2661105796980852</v>
+        <v>0.2661105796980853</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2408018505605878</v>
+        <v>0.2402799528302663</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2922988258223888</v>
+        <v>0.2940564572911624</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>624</v>
@@ -1347,19 +1347,19 @@
         <v>548573</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>509890</v>
+        <v>504681</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>594217</v>
+        <v>586796</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2497666801043332</v>
+        <v>0.2497666801043331</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2321542877188892</v>
+        <v>0.2297825106056369</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2705485684909893</v>
+        <v>0.2671698329012926</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>112307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89386</v>
+        <v>90817</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>137058</v>
+        <v>137547</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08881571988480992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07068908481565657</v>
+        <v>0.07182093658034547</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1083897669602979</v>
+        <v>0.1087769079774218</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -1397,19 +1397,19 @@
         <v>79743</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66426</v>
+        <v>65815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95250</v>
+        <v>96268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08557453425160831</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07128425606744149</v>
+        <v>0.07062844683233474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1022159355613016</v>
+        <v>0.1033085973962425</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -1418,19 +1418,19 @@
         <v>192049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>165796</v>
+        <v>166241</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221685</v>
+        <v>223789</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08744056660310771</v>
+        <v>0.08744056660310767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07548743981341093</v>
+        <v>0.07568993487047285</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.100933528348967</v>
+        <v>0.1018917149406819</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>102883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81304</v>
+        <v>81738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>126267</v>
+        <v>129784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08136328633785647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06429817470381088</v>
+        <v>0.06464099595875709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09985577023648023</v>
+        <v>0.1026377693355162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1468,19 +1468,19 @@
         <v>60702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48260</v>
+        <v>48997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75422</v>
+        <v>74320</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06514122634674255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05178892349111518</v>
+        <v>0.05258004714137114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08093724577945222</v>
+        <v>0.07975551360402072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -1489,19 +1489,19 @@
         <v>163585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140487</v>
+        <v>141465</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>193559</v>
+        <v>192362</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07448067560299551</v>
+        <v>0.07448067560299548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06396426577897601</v>
+        <v>0.06440943085200569</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08812783294534936</v>
+        <v>0.08758292006244756</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>48778</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35084</v>
+        <v>33196</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>66864</v>
+        <v>66333</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03857517646614294</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0277457367533048</v>
+        <v>0.02625259485897813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05287820698307932</v>
+        <v>0.0524582004258821</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -1539,19 +1539,19 @@
         <v>40256</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30756</v>
+        <v>30209</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>54254</v>
+        <v>54342</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.04320021038699037</v>
+        <v>0.04320021038699036</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03300564488878096</v>
+        <v>0.03241786963062258</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05822137701996827</v>
+        <v>0.05831569531176015</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>93</v>
@@ -1560,19 +1560,19 @@
         <v>89034</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70147</v>
+        <v>72405</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>109486</v>
+        <v>112292</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04053746165866212</v>
+        <v>0.04053746165866211</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03193822915302861</v>
+        <v>0.03296627340988841</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04984920065347431</v>
+        <v>0.05112686163949753</v>
       </c>
     </row>
     <row r="16">
@@ -1589,19 +1589,19 @@
         <v>21246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12637</v>
+        <v>13035</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34696</v>
+        <v>34471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01680176361244083</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009993478078621651</v>
+        <v>0.01030881728015797</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02743848946364739</v>
+        <v>0.02726040619158558</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1610,19 +1610,19 @@
         <v>10481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6102</v>
+        <v>5871</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18127</v>
+        <v>16438</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.011247222172336</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006548233640349659</v>
+        <v>0.006300195448397813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01945315422437454</v>
+        <v>0.01764023946412835</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1631,19 +1631,19 @@
         <v>31726</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22154</v>
+        <v>22881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46607</v>
+        <v>44494</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01444511183308377</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01008698640694741</v>
+        <v>0.01041772681670055</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02122036629177851</v>
+        <v>0.02025805166340656</v>
       </c>
     </row>
     <row r="17">
@@ -1735,19 +1735,19 @@
         <v>288715</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>264024</v>
+        <v>264661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>311091</v>
+        <v>310536</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5984499926992808</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5472693497462634</v>
+        <v>0.5485916882571168</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6448307438909548</v>
+        <v>0.6436814607685607</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>349</v>
@@ -1756,19 +1756,19 @@
         <v>274292</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>254541</v>
+        <v>254810</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>293783</v>
+        <v>293590</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.572746107890286</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5315048738163752</v>
+        <v>0.532065445833631</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6134441512858686</v>
+        <v>0.6130422296227864</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>599</v>
@@ -1777,19 +1777,19 @@
         <v>563007</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>531067</v>
+        <v>532478</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>593479</v>
+        <v>594677</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5856452581914672</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5524205345943541</v>
+        <v>0.5538881276834775</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6173426535289159</v>
+        <v>0.6185882248272281</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>110931</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90072</v>
+        <v>90541</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129484</v>
+        <v>132625</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2299384745606294</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1867018075459103</v>
+        <v>0.1876746718827882</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2683947403586696</v>
+        <v>0.2749049155564069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>182</v>
@@ -1827,19 +1827,19 @@
         <v>119588</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104216</v>
+        <v>104084</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137213</v>
+        <v>136425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2497111235672851</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2176129983638991</v>
+        <v>0.217335690697938</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2865122948154951</v>
+        <v>0.2848668681970355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -1848,19 +1848,19 @@
         <v>230519</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>206488</v>
+        <v>203863</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>257256</v>
+        <v>256119</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2397884845076788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2147907769445528</v>
+        <v>0.2120603891628331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.267599745283807</v>
+        <v>0.2664171387196324</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>35888</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25708</v>
+        <v>24861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48710</v>
+        <v>48297</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07438902708853083</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05328790191933257</v>
+        <v>0.05153163531195194</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1009666631826917</v>
+        <v>0.1001110903767271</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -1898,19 +1898,19 @@
         <v>31905</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24074</v>
+        <v>22692</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42790</v>
+        <v>42344</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06662122007459402</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05026770099140007</v>
+        <v>0.04738189800522706</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08934871001755391</v>
+        <v>0.08841757199166693</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>75</v>
@@ -1919,19 +1919,19 @@
         <v>67793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53310</v>
+        <v>52314</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83664</v>
+        <v>85049</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07051938997878988</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05545333668593849</v>
+        <v>0.05441729231330598</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08702755335120632</v>
+        <v>0.0884690920941078</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>17139</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9159</v>
+        <v>9573</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28523</v>
+        <v>30150</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03552583343712199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0189847820431785</v>
+        <v>0.01984308383411383</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05912280089263817</v>
+        <v>0.06249552803831861</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -1969,19 +1969,19 @@
         <v>27961</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19582</v>
+        <v>20308</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38340</v>
+        <v>38113</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.05838482582491908</v>
+        <v>0.05838482582491907</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04088988158051079</v>
+        <v>0.04240474787815841</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08005707367226002</v>
+        <v>0.07958304168428333</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -1990,19 +1990,19 @@
         <v>45100</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33964</v>
+        <v>33715</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>59555</v>
+        <v>61380</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04691334667945669</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0353291954102507</v>
+        <v>0.03507043031611735</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06194974280610722</v>
+        <v>0.06384801453659239</v>
       </c>
     </row>
     <row r="22">
@@ -2019,19 +2019,19 @@
         <v>15197</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7693</v>
+        <v>6924</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31091</v>
+        <v>26769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0315011822515032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01594527828276512</v>
+        <v>0.01435200615559224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06444581056313921</v>
+        <v>0.05548787380744699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2040,19 +2040,19 @@
         <v>16080</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10647</v>
+        <v>10346</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24768</v>
+        <v>23332</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03357655279142686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02223209120398072</v>
+        <v>0.02160364338517493</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05171702091050894</v>
+        <v>0.04871880425667481</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -2061,19 +2061,19 @@
         <v>31277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21191</v>
+        <v>20803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47538</v>
+        <v>46465</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03253505588447875</v>
+        <v>0.03253505588447874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02204259799648192</v>
+        <v>0.02163907372950843</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04944973765611194</v>
+        <v>0.0483329746504469</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>14567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7149</v>
+        <v>8612</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24002</v>
+        <v>25743</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03019548996293383</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01481823963013791</v>
+        <v>0.01785081473798974</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04975058186356834</v>
+        <v>0.05335971782519938</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2111,19 +2111,19 @@
         <v>9080</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4813</v>
+        <v>4696</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15057</v>
+        <v>15585</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01896016985148886</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01004915996939218</v>
+        <v>0.009805288463175511</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03144042652495084</v>
+        <v>0.0325435077633274</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>24</v>
@@ -2132,19 +2132,19 @@
         <v>23648</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15658</v>
+        <v>15813</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35388</v>
+        <v>35400</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0245984647581287</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01628711276975737</v>
+        <v>0.0164489357611609</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0368106254629798</v>
+        <v>0.03682367404636637</v>
       </c>
     </row>
     <row r="24">
@@ -2236,19 +2236,19 @@
         <v>1078555</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1033436</v>
+        <v>1028847</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1126486</v>
+        <v>1128625</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5652615345426525</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5416152783434132</v>
+        <v>0.5392100957236728</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5903819272141214</v>
+        <v>0.5915028277910559</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1054</v>
@@ -2257,19 +2257,19 @@
         <v>817751</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>782835</v>
+        <v>782397</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>851011</v>
+        <v>852062</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5468407486387714</v>
+        <v>0.5468407486387712</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.523492072244045</v>
+        <v>0.5231990989968419</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5690818032257615</v>
+        <v>0.5697850244699252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1957</v>
@@ -2278,19 +2278,19 @@
         <v>1896306</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1838457</v>
+        <v>1836075</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1957356</v>
+        <v>1953708</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5571678545455983</v>
+        <v>0.5571678545455981</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5401708095228348</v>
+        <v>0.5394710959408023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.575105452469386</v>
+        <v>0.5740337697621373</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>439800</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>402297</v>
+        <v>403834</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>482027</v>
+        <v>481222</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2304954986746803</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2108402821827235</v>
+        <v>0.2116458258111227</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2526262324504276</v>
+        <v>0.2522046133287363</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>551</v>
@@ -2328,19 +2328,19 @@
         <v>383401</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>355262</v>
+        <v>356063</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>413571</v>
+        <v>415554</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2563851550839034</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2375680595704239</v>
+        <v>0.2381040013924396</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2765605652948606</v>
+        <v>0.277886354807878</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>961</v>
@@ -2349,19 +2349,19 @@
         <v>823201</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>777860</v>
+        <v>775997</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>873103</v>
+        <v>878007</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2418708327838393</v>
+        <v>0.2418708327838394</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2285489814640423</v>
+        <v>0.228001470178341</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2565329962320694</v>
+        <v>0.2579737660686852</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>158257</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>132151</v>
+        <v>134434</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>189847</v>
+        <v>186771</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08294134858528057</v>
+        <v>0.08294134858528054</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06925912471910194</v>
+        <v>0.07045566311717089</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0994972658643789</v>
+        <v>0.09788519529381913</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>157</v>
@@ -2399,19 +2399,19 @@
         <v>117621</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>100492</v>
+        <v>100253</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>136982</v>
+        <v>137163</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.0786546463284771</v>
+        <v>0.07865464632847709</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.067199993322636</v>
+        <v>0.06704056178635655</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09160173190465221</v>
+        <v>0.09172237190541981</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>291</v>
@@ -2420,19 +2420,19 @@
         <v>275878</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>247346</v>
+        <v>243301</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>312834</v>
+        <v>311149</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.0810578677994848</v>
+        <v>0.08105786779948482</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07267448502899901</v>
+        <v>0.07148612657785948</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09191614558587829</v>
+        <v>0.09142095114125681</v>
       </c>
     </row>
     <row r="28">
@@ -2449,19 +2449,19 @@
         <v>128107</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>105856</v>
+        <v>105420</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>157652</v>
+        <v>157257</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.0671398685944822</v>
+        <v>0.06713986859448219</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0554784695154632</v>
+        <v>0.05524994893140635</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08262389770474028</v>
+        <v>0.08241683186909193</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>131</v>
@@ -2470,19 +2470,19 @@
         <v>94948</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>80001</v>
+        <v>80867</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>112476</v>
+        <v>111696</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.06349301015095812</v>
+        <v>0.0634930101509581</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05349760147264986</v>
+        <v>0.05407699621918784</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07521422535689358</v>
+        <v>0.07469277656696549</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>239</v>
@@ -2491,19 +2491,19 @@
         <v>223055</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>191861</v>
+        <v>194808</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>251907</v>
+        <v>255223</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06553752082330376</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05637213002550728</v>
+        <v>0.05723792493920337</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07401462172964988</v>
+        <v>0.07498910261528063</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>67531</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51898</v>
+        <v>51434</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>88319</v>
+        <v>87789</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03539239836777894</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02719908912098472</v>
+        <v>0.02695607795642762</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04628731399721882</v>
+        <v>0.04600954202259953</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>77</v>
@@ -2541,19 +2541,19 @@
         <v>59929</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>47498</v>
+        <v>47754</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>74873</v>
+        <v>77147</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04007540694962482</v>
+        <v>0.04007540694962481</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03176264263055971</v>
+        <v>0.03193364235232623</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05006842969416642</v>
+        <v>0.05158946122534259</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>134</v>
@@ -2562,19 +2562,19 @@
         <v>127460</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>106444</v>
+        <v>105128</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151206</v>
+        <v>152411</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.03745000726040134</v>
+        <v>0.03745000726040133</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03127520792173096</v>
+        <v>0.0308883299502437</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04442684430044233</v>
+        <v>0.04478103284827321</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>35813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23631</v>
+        <v>25583</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49320</v>
+        <v>51624</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01876935123512556</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01238468062526865</v>
+        <v>0.01340806030948086</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02584836516771785</v>
+        <v>0.02705564367969899</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -2612,19 +2612,19 @@
         <v>21760</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14888</v>
+        <v>14812</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31001</v>
+        <v>30905</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01455103284826529</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00995549210436498</v>
+        <v>0.009904903548566856</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02073092150300528</v>
+        <v>0.0206665453997726</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>62</v>
@@ -2633,19 +2633,19 @@
         <v>57573</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>43826</v>
+        <v>43609</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>74030</v>
+        <v>74788</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01691591678737252</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0128767976123686</v>
+        <v>0.01281299816110464</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02175138196782266</v>
+        <v>0.02197397894495093</v>
       </c>
     </row>
     <row r="31">
